--- a/biology/Zoologie/Carpophage/Carpophage.xlsx
+++ b/biology/Zoologie/Carpophage/Carpophage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpophage est un nom d'oiseaux ambigu en français car il peut désigner plusieurs espèces différentes de pigeons frugivores de l'ordre des Columbiformes et qui sont à présent dispersés dans la sous-famille des Treroninae. Le terme « carpophage » a été retenu notamment pour former la base du nom normalisé (CINFO[1]) d'espèces de la famille des Columbidae, principalement dans le genre Ducula.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpophage est un nom d'oiseaux ambigu en français car il peut désigner plusieurs espèces différentes de pigeons frugivores de l'ordre des Columbiformes et qui sont à présent dispersés dans la sous-famille des Treroninae. Le terme « carpophage » a été retenu notamment pour former la base du nom normalisé (CINFO) d'espèces de la famille des Columbidae, principalement dans le genre Ducula.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des carpophages sont celles des Treroninae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur mode de vie.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms normalisés
-Liste alphabétique des noms normalisés selon la CINFO (2009, complétée en 2014) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 5.2, avril 2015) du Congrès ornithologique international[2].
+          <t>Noms normalisés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms normalisés selon la CINFO (2009, complétée en 2014) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 5.2, avril 2015) du Congrès ornithologique international.
 Carpophage à ventre rose - Ducula poliocephala
 Carpophage de Forsten - Ducula forsteni
 Carpophage de Mindoro - Ducula mindorensis
@@ -587,9 +606,43 @@
 Carpophage des Célèbes - Cryptophaps poecilorrhoa
 Carpophage d'Albertis - Gymnophaps albertisii
 Carpophage mada - Gymnophaps mada
-Carpophage des Salomon - Gymnophaps solomonensis
-Noms divers
-Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO[2], dont l’usage est attesté[3]. 
+Carpophage des Salomon - Gymnophaps solomonensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carpophage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpophage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Noms en français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms divers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de noms vernaculaires ou de noms vulgaires, non retenus par la CINFO, dont l’usage est attesté. 
 Note : Cette liste est variable selon les usages et certaines espèces ont parfois d'autres noms encore. Les classifications évoluant encore, les noms scientifiques ont peut-être un autre synonyme valide.
 Carpophage vert - voir Carpophage pauline
 Carpophage d'Enggano - Ducula (aenea) oenothorax
